--- a/TMRN_UCD_June_2019/example_data_entry.xlsx
+++ b/TMRN_UCD_June_2019/example_data_entry.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>cos</t>
-  </si>
-  <si>
-    <t>Aoife Coffey</t>
   </si>
   <si>
     <t>my</t>
@@ -149,9 +146,6 @@
     <t xml:space="preserve">3 commerical varieties of red lettuce used; 'cos' = Cos Dixter, 'sky' = Skyphos, 'red' = Red Oakleaf </t>
   </si>
   <si>
-    <t>YYYY/MM/DD</t>
-  </si>
-  <si>
     <t>ISO 8601</t>
   </si>
   <si>
@@ -172,13 +166,16 @@
   <si>
     <t>Darren Dahly</t>
   </si>
+  <si>
+    <t>YYYY-MM-DD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -659,7 +656,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -983,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="C146" sqref="C146"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1054,7 +1051,7 @@
         <v>43556</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1086,7 +1083,7 @@
         <v>43556</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1118,7 +1115,7 @@
         <v>43556</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1150,18 +1147,18 @@
         <v>43556</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -1182,18 +1179,18 @@
         <v>43556</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -1214,18 +1211,18 @@
         <v>43556</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -1246,18 +1243,18 @@
         <v>43556</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -1278,18 +1275,18 @@
         <v>43556</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -1310,18 +1307,18 @@
         <v>43556</v>
       </c>
       <c r="J10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
@@ -1342,18 +1339,18 @@
         <v>43556</v>
       </c>
       <c r="J11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
@@ -1374,18 +1371,18 @@
         <v>43556</v>
       </c>
       <c r="J12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
@@ -1406,12 +1403,12 @@
         <v>43556</v>
       </c>
       <c r="J13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1420,7 +1417,7 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1438,12 +1435,12 @@
         <v>43563</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1452,7 +1449,7 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1470,12 +1467,12 @@
         <v>43563</v>
       </c>
       <c r="J15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1484,7 +1481,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1502,12 +1499,12 @@
         <v>43563</v>
       </c>
       <c r="J16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1516,7 +1513,7 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -1534,21 +1531,21 @@
         <v>43563</v>
       </c>
       <c r="J17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1566,21 +1563,21 @@
         <v>43563</v>
       </c>
       <c r="J18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1598,21 +1595,21 @@
         <v>43563</v>
       </c>
       <c r="J19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1630,21 +1627,21 @@
         <v>43563</v>
       </c>
       <c r="J20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21">
         <v>4</v>
@@ -1662,21 +1659,21 @@
         <v>43563</v>
       </c>
       <c r="J21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1694,21 +1691,21 @@
         <v>43563</v>
       </c>
       <c r="J22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
         <v>14</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>15</v>
-      </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -1726,21 +1723,21 @@
         <v>43563</v>
       </c>
       <c r="J23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1758,21 +1755,21 @@
         <v>43563</v>
       </c>
       <c r="J24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>4</v>
@@ -1790,12 +1787,12 @@
         <v>43563</v>
       </c>
       <c r="J25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -1804,7 +1801,7 @@
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1822,12 +1819,12 @@
         <v>43570</v>
       </c>
       <c r="J26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -1836,7 +1833,7 @@
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -1854,12 +1851,12 @@
         <v>43570</v>
       </c>
       <c r="J27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -1868,7 +1865,7 @@
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -1886,12 +1883,12 @@
         <v>43570</v>
       </c>
       <c r="J28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -1900,7 +1897,7 @@
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E29">
         <v>4</v>
@@ -1918,21 +1915,21 @@
         <v>43570</v>
       </c>
       <c r="J29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1950,21 +1947,21 @@
         <v>43570</v>
       </c>
       <c r="J30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -1982,21 +1979,21 @@
         <v>43570</v>
       </c>
       <c r="J31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E32">
         <v>3</v>
@@ -2014,21 +2011,21 @@
         <v>43570</v>
       </c>
       <c r="J32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E33">
         <v>4</v>
@@ -2046,21 +2043,21 @@
         <v>43570</v>
       </c>
       <c r="J33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2078,21 +2075,21 @@
         <v>43570</v>
       </c>
       <c r="J34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E35">
         <v>2</v>
@@ -2110,21 +2107,21 @@
         <v>43570</v>
       </c>
       <c r="J35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E36">
         <v>3</v>
@@ -2142,21 +2139,21 @@
         <v>43570</v>
       </c>
       <c r="J36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E37">
         <v>4</v>
@@ -2174,12 +2171,12 @@
         <v>43570</v>
       </c>
       <c r="J37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -2188,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2206,12 +2203,12 @@
         <v>43577</v>
       </c>
       <c r="J38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -2220,7 +2217,7 @@
         <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -2238,12 +2235,12 @@
         <v>43577</v>
       </c>
       <c r="J39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -2252,7 +2249,7 @@
         <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E40">
         <v>3</v>
@@ -2270,12 +2267,12 @@
         <v>43577</v>
       </c>
       <c r="J40" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -2284,7 +2281,7 @@
         <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E41">
         <v>4</v>
@@ -2302,21 +2299,21 @@
         <v>43577</v>
       </c>
       <c r="J41" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -2334,21 +2331,21 @@
         <v>43577</v>
       </c>
       <c r="J42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B43">
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -2366,21 +2363,21 @@
         <v>43577</v>
       </c>
       <c r="J43" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E44">
         <v>3</v>
@@ -2398,21 +2395,21 @@
         <v>43577</v>
       </c>
       <c r="J44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E45">
         <v>4</v>
@@ -2430,21 +2427,21 @@
         <v>43577</v>
       </c>
       <c r="J45" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -2462,21 +2459,21 @@
         <v>43577</v>
       </c>
       <c r="J46" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B47">
         <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E47">
         <v>2</v>
@@ -2494,21 +2491,21 @@
         <v>43577</v>
       </c>
       <c r="J47" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E48">
         <v>3</v>
@@ -2526,21 +2523,21 @@
         <v>43577</v>
       </c>
       <c r="J48" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B49">
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E49">
         <v>4</v>
@@ -2558,12 +2555,12 @@
         <v>43577</v>
       </c>
       <c r="J49" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2584,18 +2581,18 @@
         <v>0.47</v>
       </c>
       <c r="H50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I50" s="1">
         <v>43556</v>
       </c>
       <c r="J50" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2616,18 +2613,18 @@
         <v>0.5</v>
       </c>
       <c r="H51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I51" s="1">
         <v>43556</v>
       </c>
       <c r="J51" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2648,18 +2645,18 @@
         <v>0.74</v>
       </c>
       <c r="H52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I52" s="1">
         <v>43556</v>
       </c>
       <c r="J52" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2680,24 +2677,24 @@
         <v>0.76</v>
       </c>
       <c r="H53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I53" s="1">
         <v>43556</v>
       </c>
       <c r="J53" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D54" t="s">
         <v>11</v>
@@ -2712,24 +2709,24 @@
         <v>0.47</v>
       </c>
       <c r="H54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I54" s="1">
         <v>43556</v>
       </c>
       <c r="J54" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D55" t="s">
         <v>11</v>
@@ -2744,24 +2741,24 @@
         <v>0.5</v>
       </c>
       <c r="H55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I55" s="1">
         <v>43556</v>
       </c>
       <c r="J55" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D56" t="s">
         <v>11</v>
@@ -2776,24 +2773,24 @@
         <v>0.74</v>
       </c>
       <c r="H56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I56" s="1">
         <v>43556</v>
       </c>
       <c r="J56" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D57" t="s">
         <v>11</v>
@@ -2808,24 +2805,24 @@
         <v>0.76</v>
       </c>
       <c r="H57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I57" s="1">
         <v>43556</v>
       </c>
       <c r="J57" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D58" t="s">
         <v>11</v>
@@ -2840,24 +2837,24 @@
         <v>0.47</v>
       </c>
       <c r="H58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I58" s="1">
         <v>43556</v>
       </c>
       <c r="J58" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D59" t="s">
         <v>11</v>
@@ -2872,24 +2869,24 @@
         <v>0.5</v>
       </c>
       <c r="H59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I59" s="1">
         <v>43556</v>
       </c>
       <c r="J59" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D60" t="s">
         <v>11</v>
@@ -2904,24 +2901,24 @@
         <v>0.74</v>
       </c>
       <c r="H60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I60" s="1">
         <v>43556</v>
       </c>
       <c r="J60" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D61" t="s">
         <v>11</v>
@@ -2936,18 +2933,18 @@
         <v>0.76</v>
       </c>
       <c r="H61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I61" s="1">
         <v>43556</v>
       </c>
       <c r="J61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -2956,7 +2953,7 @@
         <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -2968,18 +2965,18 @@
         <v>0.91</v>
       </c>
       <c r="H62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I62" s="1">
         <v>43563</v>
       </c>
       <c r="J62" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -2988,7 +2985,7 @@
         <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E63">
         <v>2</v>
@@ -3000,18 +2997,18 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="H63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I63" s="1">
         <v>43563</v>
       </c>
       <c r="J63" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -3020,7 +3017,7 @@
         <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E64">
         <v>3</v>
@@ -3032,18 +3029,18 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="H64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I64" s="1">
         <v>43563</v>
       </c>
       <c r="J64" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -3052,7 +3049,7 @@
         <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E65">
         <v>4</v>
@@ -3064,27 +3061,27 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="H65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I65" s="1">
         <v>43563</v>
       </c>
       <c r="J65" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -3096,27 +3093,27 @@
         <v>1.86</v>
       </c>
       <c r="H66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I66" s="1">
         <v>43563</v>
       </c>
       <c r="J66" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E67">
         <v>2</v>
@@ -3128,27 +3125,27 @@
         <v>3.79</v>
       </c>
       <c r="H67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I67" s="1">
         <v>43563</v>
       </c>
       <c r="J67" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E68">
         <v>3</v>
@@ -3160,27 +3157,27 @@
         <v>5.88</v>
       </c>
       <c r="H68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I68" s="1">
         <v>43563</v>
       </c>
       <c r="J68" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E69">
         <v>4</v>
@@ -3192,27 +3189,27 @@
         <v>6.59</v>
       </c>
       <c r="H69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I69" s="1">
         <v>43563</v>
       </c>
       <c r="J69" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -3224,27 +3221,27 @@
         <v>6.59</v>
       </c>
       <c r="H70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I70" s="1">
         <v>43563</v>
       </c>
       <c r="J70" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E71">
         <v>2</v>
@@ -3256,27 +3253,27 @@
         <v>9.5299999999999994</v>
       </c>
       <c r="H71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I71" s="1">
         <v>43563</v>
       </c>
       <c r="J71" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E72">
         <v>3</v>
@@ -3288,27 +3285,27 @@
         <v>10.45</v>
       </c>
       <c r="H72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I72" s="1">
         <v>43563</v>
       </c>
       <c r="J72" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E73">
         <v>4</v>
@@ -3320,18 +3317,18 @@
         <v>10.45</v>
       </c>
       <c r="H73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I73" s="1">
         <v>43563</v>
       </c>
       <c r="J73" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B74">
         <v>2</v>
@@ -3340,7 +3337,7 @@
         <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -3352,18 +3349,18 @@
         <v>17.350000000000001</v>
       </c>
       <c r="H74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I74" s="1">
         <v>43570</v>
       </c>
       <c r="J74" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="B75">
         <v>2</v>
@@ -3372,7 +3369,7 @@
         <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E75">
         <v>2</v>
@@ -3384,18 +3381,18 @@
         <v>1.44</v>
       </c>
       <c r="H75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I75" s="1">
         <v>43570</v>
       </c>
       <c r="J75" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="B76">
         <v>2</v>
@@ -3404,7 +3401,7 @@
         <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E76">
         <v>3</v>
@@ -3416,18 +3413,18 @@
         <v>2.23</v>
       </c>
       <c r="H76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I76" s="1">
         <v>43570</v>
       </c>
       <c r="J76" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B77">
         <v>2</v>
@@ -3436,7 +3433,7 @@
         <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E77">
         <v>4</v>
@@ -3448,27 +3445,27 @@
         <v>2.57</v>
       </c>
       <c r="H77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I77" s="1">
         <v>43570</v>
       </c>
       <c r="J77" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B78">
         <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -3480,27 +3477,27 @@
         <v>12.86</v>
       </c>
       <c r="H78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I78" s="1">
         <v>43570</v>
       </c>
       <c r="J78" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B79">
         <v>2</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D79" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E79">
         <v>2</v>
@@ -3512,27 +3509,27 @@
         <v>10.7</v>
       </c>
       <c r="H79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I79" s="1">
         <v>43570</v>
       </c>
       <c r="J79" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="B80">
         <v>2</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E80">
         <v>3</v>
@@ -3544,27 +3541,27 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="H80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I80" s="1">
         <v>43570</v>
       </c>
       <c r="J80" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="B81">
         <v>2</v>
       </c>
       <c r="C81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E81">
         <v>4</v>
@@ -3576,27 +3573,27 @@
         <v>2.95</v>
       </c>
       <c r="H81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I81" s="1">
         <v>43570</v>
       </c>
       <c r="J81" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B82">
         <v>2</v>
       </c>
       <c r="C82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -3608,27 +3605,27 @@
         <v>14.76</v>
       </c>
       <c r="H82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I82" s="1">
         <v>43570</v>
       </c>
       <c r="J82" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B83">
         <v>2</v>
       </c>
       <c r="C83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E83">
         <v>2</v>
@@ -3640,27 +3637,27 @@
         <v>14.76</v>
       </c>
       <c r="H83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I83" s="1">
         <v>43570</v>
       </c>
       <c r="J83" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B84">
         <v>2</v>
       </c>
       <c r="C84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D84" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E84">
         <v>3</v>
@@ -3672,27 +3669,27 @@
         <v>16.559999999999999</v>
       </c>
       <c r="H84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I84" s="1">
         <v>43570</v>
       </c>
       <c r="J84" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B85">
         <v>2</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D85" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E85">
         <v>4</v>
@@ -3704,18 +3701,18 @@
         <v>16.95</v>
       </c>
       <c r="H85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I85" s="1">
         <v>43570</v>
       </c>
       <c r="J85" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="B86">
         <v>3</v>
@@ -3724,7 +3721,7 @@
         <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -3736,18 +3733,18 @@
         <v>22.87</v>
       </c>
       <c r="H86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I86" s="1">
         <v>43577</v>
       </c>
       <c r="J86" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="B87">
         <v>3</v>
@@ -3756,7 +3753,7 @@
         <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E87">
         <v>2</v>
@@ -3768,18 +3765,18 @@
         <v>1.86</v>
       </c>
       <c r="H87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I87" s="1">
         <v>43577</v>
       </c>
       <c r="J87" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="B88">
         <v>3</v>
@@ -3788,7 +3785,7 @@
         <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E88">
         <v>3</v>
@@ -3800,18 +3797,18 @@
         <v>2.09</v>
       </c>
       <c r="H88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I88" s="1">
         <v>43577</v>
       </c>
       <c r="J88" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B89">
         <v>3</v>
@@ -3820,7 +3817,7 @@
         <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E89">
         <v>4</v>
@@ -3832,27 +3829,27 @@
         <v>2.63</v>
       </c>
       <c r="H89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I89" s="1">
         <v>43577</v>
       </c>
       <c r="J89" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="B90">
         <v>3</v>
       </c>
       <c r="C90" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -3864,27 +3861,27 @@
         <v>2.69</v>
       </c>
       <c r="H90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I90" s="1">
         <v>43577</v>
       </c>
       <c r="J90" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B91">
         <v>3</v>
       </c>
       <c r="C91" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D91" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E91">
         <v>2</v>
@@ -3896,27 +3893,27 @@
         <v>12.86</v>
       </c>
       <c r="H91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I91" s="1">
         <v>43577</v>
       </c>
       <c r="J91" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="B92">
         <v>3</v>
       </c>
       <c r="C92" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E92">
         <v>3</v>
@@ -3928,27 +3925,27 @@
         <v>13.46</v>
       </c>
       <c r="H92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I92" s="1">
         <v>43577</v>
       </c>
       <c r="J92" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="B93">
         <v>3</v>
       </c>
       <c r="C93" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E93">
         <v>4</v>
@@ -3960,27 +3957,27 @@
         <v>14.43</v>
       </c>
       <c r="H93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I93" s="1">
         <v>43577</v>
       </c>
       <c r="J93" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B94">
         <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -3992,27 +3989,27 @@
         <v>16.190000000000001</v>
       </c>
       <c r="H94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I94" s="1">
         <v>43577</v>
       </c>
       <c r="J94" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="B95">
         <v>3</v>
       </c>
       <c r="C95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E95">
         <v>2</v>
@@ -4024,27 +4021,27 @@
         <v>16.190000000000001</v>
       </c>
       <c r="H95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I95" s="1">
         <v>43577</v>
       </c>
       <c r="J95" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="B96">
         <v>3</v>
       </c>
       <c r="C96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E96">
         <v>3</v>
@@ -4056,27 +4053,27 @@
         <v>17.350000000000001</v>
       </c>
       <c r="H96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I96" s="1">
         <v>43577</v>
       </c>
       <c r="J96" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B97">
         <v>3</v>
       </c>
       <c r="C97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E97">
         <v>4</v>
@@ -4088,24 +4085,24 @@
         <v>22.87</v>
       </c>
       <c r="H97" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I97" s="1">
         <v>43577</v>
       </c>
       <c r="J97" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
       <c r="C98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D98" t="s">
         <v>11</v>
@@ -4120,18 +4117,18 @@
         <v>0.61</v>
       </c>
       <c r="H98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I98" s="1">
         <v>43556</v>
       </c>
       <c r="J98" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -4152,18 +4149,18 @@
         <v>0.59</v>
       </c>
       <c r="H99" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I99" s="1">
         <v>43556</v>
       </c>
       <c r="J99" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -4184,18 +4181,18 @@
         <v>0.4</v>
       </c>
       <c r="H100" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I100" s="1">
         <v>43556</v>
       </c>
       <c r="J100" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -4216,18 +4213,18 @@
         <v>0.37</v>
       </c>
       <c r="H101" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I101" s="1">
         <v>43556</v>
       </c>
       <c r="J101" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -4248,24 +4245,24 @@
         <v>0.61</v>
       </c>
       <c r="H102" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I102" s="1">
         <v>43556</v>
       </c>
       <c r="J102" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
       <c r="C103" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D103" t="s">
         <v>11</v>
@@ -4280,24 +4277,24 @@
         <v>0.59</v>
       </c>
       <c r="H103" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I103" s="1">
         <v>43556</v>
       </c>
       <c r="J103" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D104" t="s">
         <v>11</v>
@@ -4312,24 +4309,24 @@
         <v>0.4</v>
       </c>
       <c r="H104" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I104" s="1">
         <v>43556</v>
       </c>
       <c r="J104" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
       <c r="C105" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D105" t="s">
         <v>11</v>
@@ -4344,24 +4341,24 @@
         <v>0.37</v>
       </c>
       <c r="H105" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I105" s="1">
         <v>43556</v>
       </c>
       <c r="J105" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
       <c r="C106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D106" t="s">
         <v>11</v>
@@ -4376,24 +4373,24 @@
         <v>0.61</v>
       </c>
       <c r="H106" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I106" s="1">
         <v>43556</v>
       </c>
       <c r="J106" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
       <c r="C107" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D107" t="s">
         <v>11</v>
@@ -4408,24 +4405,24 @@
         <v>0.59</v>
       </c>
       <c r="H107" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I107" s="1">
         <v>43556</v>
       </c>
       <c r="J107" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
       <c r="C108" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D108" t="s">
         <v>11</v>
@@ -4440,24 +4437,24 @@
         <v>0.4</v>
       </c>
       <c r="H108" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I108" s="1">
         <v>43556</v>
       </c>
       <c r="J108" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
       <c r="C109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D109" t="s">
         <v>11</v>
@@ -4472,27 +4469,27 @@
         <v>0.37</v>
       </c>
       <c r="H109" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I109" s="1">
         <v>43556</v>
       </c>
       <c r="J109" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="B110">
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D110" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -4504,18 +4501,18 @@
         <v>0.73</v>
       </c>
       <c r="H110" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I110" s="1">
         <v>43563</v>
       </c>
       <c r="J110" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -4524,7 +4521,7 @@
         <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E111">
         <v>2</v>
@@ -4536,18 +4533,18 @@
         <v>0.92</v>
       </c>
       <c r="H111" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I111" s="1">
         <v>43563</v>
       </c>
       <c r="J111" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -4556,7 +4553,7 @@
         <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E112">
         <v>3</v>
@@ -4568,18 +4565,18 @@
         <v>0.92</v>
       </c>
       <c r="H112" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I112" s="1">
         <v>43563</v>
       </c>
       <c r="J112" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -4588,7 +4585,7 @@
         <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E113">
         <v>4</v>
@@ -4600,27 +4597,27 @@
         <v>0.92</v>
       </c>
       <c r="H113" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I113" s="1">
         <v>43563</v>
       </c>
       <c r="J113" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B114">
         <v>1</v>
       </c>
       <c r="C114" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D114" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -4632,27 +4629,27 @@
         <v>1.49</v>
       </c>
       <c r="H114" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I114" s="1">
         <v>43563</v>
       </c>
       <c r="J114" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B115">
         <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D115" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E115">
         <v>2</v>
@@ -4664,27 +4661,27 @@
         <v>3.04</v>
       </c>
       <c r="H115" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I115" s="1">
         <v>43563</v>
       </c>
       <c r="J115" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B116">
         <v>1</v>
       </c>
       <c r="C116" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D116" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E116">
         <v>3</v>
@@ -4696,27 +4693,27 @@
         <v>4.7</v>
       </c>
       <c r="H116" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I116" s="1">
         <v>43563</v>
       </c>
       <c r="J116" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B117">
         <v>1</v>
       </c>
       <c r="C117" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D117" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E117">
         <v>4</v>
@@ -4728,27 +4725,27 @@
         <v>5.28</v>
       </c>
       <c r="H117" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I117" s="1">
         <v>43563</v>
       </c>
       <c r="J117" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B118">
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D118" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -4760,27 +4757,27 @@
         <v>5.28</v>
       </c>
       <c r="H118" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I118" s="1">
         <v>43563</v>
       </c>
       <c r="J118" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B119">
         <v>1</v>
       </c>
       <c r="C119" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D119" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E119">
         <v>2</v>
@@ -4792,27 +4789,27 @@
         <v>7.63</v>
       </c>
       <c r="H119" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I119" s="1">
         <v>43563</v>
       </c>
       <c r="J119" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B120">
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D120" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E120">
         <v>3</v>
@@ -4824,27 +4821,27 @@
         <v>8.36</v>
       </c>
       <c r="H120" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I120" s="1">
         <v>43563</v>
       </c>
       <c r="J120" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B121">
         <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D121" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E121">
         <v>4</v>
@@ -4856,18 +4853,18 @@
         <v>8.36</v>
       </c>
       <c r="H121" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I121" s="1">
         <v>43563</v>
       </c>
       <c r="J121" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B122">
         <v>2</v>
@@ -4876,7 +4873,7 @@
         <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -4888,18 +4885,18 @@
         <v>13.88</v>
       </c>
       <c r="H122" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I122" s="1">
         <v>43570</v>
       </c>
       <c r="J122" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B123">
         <v>2</v>
@@ -4908,7 +4905,7 @@
         <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E123">
         <v>2</v>
@@ -4920,18 +4917,18 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="H123" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I123" s="1">
         <v>43570</v>
       </c>
       <c r="J123" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B124">
         <v>2</v>
@@ -4940,7 +4937,7 @@
         <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E124">
         <v>3</v>
@@ -4952,18 +4949,18 @@
         <v>1.79</v>
       </c>
       <c r="H124" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I124" s="1">
         <v>43570</v>
       </c>
       <c r="J124" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="B125">
         <v>2</v>
@@ -4972,7 +4969,7 @@
         <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E125">
         <v>4</v>
@@ -4984,27 +4981,27 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="H125" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I125" s="1">
         <v>43570</v>
       </c>
       <c r="J125" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="B126">
         <v>2</v>
       </c>
       <c r="C126" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D126" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -5016,27 +5013,27 @@
         <v>2.36</v>
       </c>
       <c r="H126" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I126" s="1">
         <v>43570</v>
       </c>
       <c r="J126" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="B127">
         <v>2</v>
       </c>
       <c r="C127" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D127" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E127">
         <v>2</v>
@@ -5048,27 +5045,27 @@
         <v>6.64</v>
       </c>
       <c r="H127" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I127" s="1">
         <v>43570</v>
       </c>
       <c r="J127" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="B128">
         <v>2</v>
       </c>
       <c r="C128" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D128" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E128">
         <v>3</v>
@@ -5080,27 +5077,27 @@
         <v>8.56</v>
       </c>
       <c r="H128" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I128" s="1">
         <v>43570</v>
       </c>
       <c r="J128" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="B129">
         <v>2</v>
       </c>
       <c r="C129" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D129" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E129">
         <v>4</v>
@@ -5112,27 +5109,27 @@
         <v>10.29</v>
       </c>
       <c r="H129" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I129" s="1">
         <v>43570</v>
       </c>
       <c r="J129" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="B130">
         <v>2</v>
       </c>
       <c r="C130" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D130" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E130">
         <v>1</v>
@@ -5144,27 +5141,27 @@
         <v>11.81</v>
       </c>
       <c r="H130" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I130" s="1">
         <v>43570</v>
       </c>
       <c r="J130" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="B131">
         <v>2</v>
       </c>
       <c r="C131" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D131" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E131">
         <v>2</v>
@@ -5176,27 +5173,27 @@
         <v>11.81</v>
       </c>
       <c r="H131" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I131" s="1">
         <v>43570</v>
       </c>
       <c r="J131" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="B132">
         <v>2</v>
       </c>
       <c r="C132" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D132" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E132">
         <v>3</v>
@@ -5208,27 +5205,27 @@
         <v>13.25</v>
       </c>
       <c r="H132" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I132" s="1">
         <v>43570</v>
       </c>
       <c r="J132" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="B133">
         <v>2</v>
       </c>
       <c r="C133" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D133" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E133">
         <v>4</v>
@@ -5240,18 +5237,18 @@
         <v>13.56</v>
       </c>
       <c r="H133" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I133" s="1">
         <v>43570</v>
       </c>
       <c r="J133" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="B134">
         <v>3</v>
@@ -5260,7 +5257,7 @@
         <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -5272,18 +5269,18 @@
         <v>18.29</v>
       </c>
       <c r="H134" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I134" s="1">
         <v>43577</v>
       </c>
       <c r="J134" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="B135">
         <v>3</v>
@@ -5292,7 +5289,7 @@
         <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E135">
         <v>2</v>
@@ -5304,18 +5301,18 @@
         <v>2.1</v>
       </c>
       <c r="H135" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I135" s="1">
         <v>43577</v>
       </c>
       <c r="J135" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="B136">
         <v>3</v>
@@ -5324,7 +5321,7 @@
         <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E136">
         <v>3</v>
@@ -5336,18 +5333,18 @@
         <v>1.67</v>
       </c>
       <c r="H136" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I136" s="1">
         <v>43577</v>
       </c>
       <c r="J136" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="B137">
         <v>3</v>
@@ -5356,7 +5353,7 @@
         <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E137">
         <v>4</v>
@@ -5368,27 +5365,27 @@
         <v>1.49</v>
       </c>
       <c r="H137" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I137" s="1">
         <v>43577</v>
       </c>
       <c r="J137" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="B138">
         <v>3</v>
       </c>
       <c r="C138" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D138" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -5400,27 +5397,27 @@
         <v>2.15</v>
       </c>
       <c r="H138" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I138" s="1">
         <v>43577</v>
       </c>
       <c r="J138" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="B139">
         <v>3</v>
       </c>
       <c r="C139" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D139" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E139">
         <v>2</v>
@@ -5432,27 +5429,27 @@
         <v>10.29</v>
       </c>
       <c r="H139" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I139" s="1">
         <v>43577</v>
       </c>
       <c r="J139" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="B140">
         <v>3</v>
       </c>
       <c r="C140" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D140" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E140">
         <v>3</v>
@@ -5464,27 +5461,27 @@
         <v>10.77</v>
       </c>
       <c r="H140" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I140" s="1">
         <v>43577</v>
       </c>
       <c r="J140" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="B141">
         <v>3</v>
       </c>
       <c r="C141" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D141" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E141">
         <v>4</v>
@@ -5496,27 +5493,27 @@
         <v>11.54</v>
       </c>
       <c r="H141" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I141" s="1">
         <v>43577</v>
       </c>
       <c r="J141" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="B142">
         <v>3</v>
       </c>
       <c r="C142" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D142" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E142">
         <v>1</v>
@@ -5528,27 +5525,27 @@
         <v>12.95</v>
       </c>
       <c r="H142" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I142" s="1">
         <v>43577</v>
       </c>
       <c r="J142" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="B143">
         <v>3</v>
       </c>
       <c r="C143" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D143" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E143">
         <v>2</v>
@@ -5560,27 +5557,27 @@
         <v>12.95</v>
       </c>
       <c r="H143" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I143" s="1">
         <v>43577</v>
       </c>
       <c r="J143" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="B144">
         <v>3</v>
       </c>
       <c r="C144" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D144" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E144">
         <v>3</v>
@@ -5592,27 +5589,27 @@
         <v>13.88</v>
       </c>
       <c r="H144" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I144" s="1">
         <v>43577</v>
       </c>
       <c r="J144" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="B145">
         <v>3</v>
       </c>
       <c r="C145" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D145" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E145">
         <v>4</v>
@@ -5624,18 +5621,18 @@
         <v>18.29</v>
       </c>
       <c r="H145" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I145" s="1">
         <v>43577</v>
       </c>
       <c r="J145" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -5657,6 +5654,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
@@ -5706,8 +5704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5722,22 +5720,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>24</v>
-      </c>
-      <c r="F1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -5745,19 +5743,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
       </c>
       <c r="D2">
         <v>23</v>
       </c>
       <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
         <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -5765,19 +5763,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>27</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -5785,19 +5783,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
         <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -5805,19 +5803,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -5825,19 +5823,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -5845,19 +5843,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7">
         <v>0.34210000000000002</v>
       </c>
       <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
         <v>36</v>
-      </c>
-      <c r="F7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -5865,36 +5863,36 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
         <v>38</v>
-      </c>
-      <c r="F8" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -5905,16 +5903,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D10" s="1">
         <v>43644</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -5922,19 +5920,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -5994,10 +5992,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -6006,7 +6004,7 @@
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -6014,19 +6012,19 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
         <v>47</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -6040,7 +6038,7 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
